--- a/raw_data/20200818_saline/20200818_Sensor3_Test_93.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_93.xlsx
@@ -1,975 +1,1391 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5C233-282C-43A5-BB89-E1B2047D6B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>83360.517812</v>
+        <v>83360.517812000006</v>
       </c>
       <c r="B2" s="1">
-        <v>23.155699</v>
+        <v>23.155698999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>1152.370000</v>
+        <v>1152.3699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.827000</v>
+        <v>-258.827</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>83370.618343</v>
+        <v>83370.618342999995</v>
       </c>
       <c r="G2" s="1">
-        <v>23.158505</v>
+        <v>23.158505000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1174.100000</v>
+        <v>1174.0999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.427000</v>
+        <v>-217.42699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>83380.767978</v>
+        <v>83380.767978000003</v>
       </c>
       <c r="L2" s="1">
         <v>23.161324</v>
       </c>
       <c r="M2" s="1">
-        <v>1201.320000</v>
+        <v>1201.32</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.566000</v>
+        <v>-151.566</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>83391.297052</v>
+        <v>83391.297051999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.164249</v>
+        <v>23.164249000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1209.620000</v>
+        <v>1209.6199999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.470000</v>
+        <v>-129.47</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>83401.866830</v>
+        <v>83401.866829999999</v>
       </c>
       <c r="V2" s="1">
         <v>23.167185</v>
       </c>
       <c r="W2" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.442000</v>
+        <v>-108.44199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>83412.380992</v>
+        <v>83412.380992000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>23.170106</v>
+        <v>23.170106000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.780000</v>
+        <v>1224.78</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.331600</v>
+        <v>-91.331599999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>83422.970579</v>
+        <v>83422.970579000001</v>
       </c>
       <c r="AF2" s="1">
         <v>23.173047</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.550000</v>
+        <v>1229.55</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.640600</v>
+        <v>-86.640600000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>83433.449556</v>
+        <v>83433.449556000007</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.175958</v>
+        <v>23.175958000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.730000</v>
+        <v>1236.73</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.677000</v>
+        <v>-89.677000000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>83444.039143</v>
+        <v>83444.039143000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.178900</v>
+        <v>23.178899999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.373000</v>
+        <v>-101.373</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>83455.035448</v>
+        <v>83455.035447999995</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.181954</v>
+        <v>23.181954000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1254.430000</v>
+        <v>1254.43</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.495000</v>
+        <v>-120.495</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>83466.051593</v>
+        <v>83466.051592999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.185014</v>
+        <v>23.185013999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.878000</v>
+        <v>-137.87799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>83477.000282</v>
+        <v>83477.000281999994</v>
       </c>
       <c r="BE2" s="1">
         <v>23.188056</v>
       </c>
       <c r="BF2" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.771000</v>
+        <v>-219.77099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>83488.013948</v>
+        <v>83488.013948000007</v>
       </c>
       <c r="BJ2" s="1">
         <v>23.191115</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.340000</v>
+        <v>1372.34</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.235000</v>
+        <v>-356.23500000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>83499.050925</v>
+        <v>83499.050925000003</v>
       </c>
       <c r="BO2" s="1">
         <v>23.194181</v>
       </c>
       <c r="BP2" s="1">
-        <v>1487.420000</v>
+        <v>1487.42</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.608000</v>
+        <v>-577.60799999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>83510.599310</v>
+        <v>83510.599310000005</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.197389</v>
+        <v>23.197389000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.560000</v>
+        <v>1619.56</v>
       </c>
       <c r="BV2" s="1">
-        <v>-826.651000</v>
+        <v>-826.65099999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>83522.960574</v>
+        <v>83522.960573999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.200822</v>
+        <v>23.200821999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.930000</v>
+        <v>1772.93</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1096.580000</v>
+        <v>-1096.58</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>83534.377983</v>
+        <v>83534.377982999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.203994</v>
+        <v>23.203994000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2191.030000</v>
+        <v>2191.0300000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1748.410000</v>
+        <v>-1748.41</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>83360.907669</v>
+        <v>83360.907668999993</v>
       </c>
       <c r="B3" s="1">
         <v>23.155808</v>
       </c>
       <c r="C3" s="1">
-        <v>1152.530000</v>
+        <v>1152.53</v>
       </c>
       <c r="D3" s="1">
-        <v>-259.028000</v>
+        <v>-259.02800000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>83371.001255</v>
+        <v>83371.001254999996</v>
       </c>
       <c r="G3" s="1">
-        <v>23.158611</v>
+        <v>23.158611000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1173.390000</v>
+        <v>1173.3900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.964000</v>
+        <v>-216.964</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>83381.190073</v>
+        <v>83381.190073000005</v>
       </c>
       <c r="L3" s="1">
-        <v>23.161442</v>
+        <v>23.161442000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1201.590000</v>
+        <v>1201.5899999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.488000</v>
+        <v>-151.488</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>83391.710220</v>
+        <v>83391.710219999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.164364</v>
+        <v>23.164363999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1209.510000</v>
+        <v>1209.51</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.573000</v>
+        <v>-129.57300000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>83402.267101</v>
+        <v>83402.267101000005</v>
       </c>
       <c r="V3" s="1">
         <v>23.167296</v>
       </c>
       <c r="W3" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.557000</v>
+        <v>-108.557</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>83412.742576</v>
+        <v>83412.742576000004</v>
       </c>
       <c r="AA3" s="1">
         <v>23.170206</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.700000</v>
+        <v>1224.7</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.497700</v>
+        <v>-91.497699999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>83423.329186</v>
+        <v>83423.329186000003</v>
       </c>
       <c r="AF3" s="1">
         <v>23.173147</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.530000</v>
+        <v>1229.53</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.631400</v>
+        <v>-86.631399999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>83433.835454</v>
       </c>
       <c r="AK3" s="1">
-        <v>23.176065</v>
+        <v>23.176065000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.740000</v>
+        <v>1236.74</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.685300</v>
+        <v>-89.685299999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>83444.789094</v>
+        <v>83444.789094000007</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.179108</v>
+        <v>23.179107999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.343000</v>
+        <v>-101.343</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>83455.769031</v>
+        <v>83455.769031000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.182158</v>
+        <v>23.182158000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1254.480000</v>
+        <v>1254.48</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.485000</v>
+        <v>-120.485</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>83466.445416</v>
+        <v>83466.445416000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23.185124</v>
+        <v>23.185123999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.891000</v>
+        <v>-137.89099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>83477.363850</v>
+        <v>83477.363849999994</v>
       </c>
       <c r="BE3" s="1">
         <v>23.188157</v>
       </c>
       <c r="BF3" s="1">
-        <v>1302.580000</v>
+        <v>1302.58</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.769000</v>
+        <v>-219.76900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>83488.413228</v>
+        <v>83488.413228000005</v>
       </c>
       <c r="BJ3" s="1">
         <v>23.191226</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.370000</v>
+        <v>1372.37</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.209000</v>
+        <v>-356.209</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>83499.772605</v>
+        <v>83499.772605000006</v>
       </c>
       <c r="BO3" s="1">
         <v>23.194381</v>
       </c>
       <c r="BP3" s="1">
-        <v>1487.430000</v>
+        <v>1487.43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.558000</v>
+        <v>-577.55799999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>83511.372541</v>
+        <v>83511.372541000004</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.197603</v>
+        <v>23.197603000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.630000</v>
+        <v>1619.63</v>
       </c>
       <c r="BV3" s="1">
-        <v>-826.599000</v>
+        <v>-826.59900000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>83523.100943</v>
+        <v>83523.100942999998</v>
       </c>
       <c r="BY3" s="1">
         <v>23.200861</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.480000</v>
+        <v>1772.48</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1096.400000</v>
+        <v>-1096.4000000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>83534.597727</v>
@@ -978,497 +1394,497 @@
         <v>23.204055</v>
       </c>
       <c r="CE3" s="1">
-        <v>2189.020000</v>
+        <v>2189.02</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1747.910000</v>
+        <v>-1747.91</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>83361.347123</v>
       </c>
       <c r="B4" s="1">
-        <v>23.155930</v>
+        <v>23.155930000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1152.190000</v>
+        <v>1152.19</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.901000</v>
+        <v>-258.90100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>83371.424380</v>
+        <v>83371.424379999997</v>
       </c>
       <c r="G4" s="1">
-        <v>23.158729</v>
+        <v>23.158729000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1174.040000</v>
+        <v>1174.04</v>
       </c>
       <c r="I4" s="1">
-        <v>-216.894000</v>
+        <v>-216.89400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>83381.531322</v>
+        <v>83381.531321999995</v>
       </c>
       <c r="L4" s="1">
-        <v>23.161536</v>
+        <v>23.161536000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1201.620000</v>
+        <v>1201.6199999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.859000</v>
+        <v>-151.85900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>83392.058424</v>
+        <v>83392.058424000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>23.164461</v>
+        <v>23.164460999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.580000</v>
+        <v>-129.58000000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>83402.610301</v>
+        <v>83402.610300999993</v>
       </c>
       <c r="V4" s="1">
         <v>23.167392</v>
       </c>
       <c r="W4" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.632000</v>
+        <v>-108.63200000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>83413.089809</v>
+        <v>83413.089808999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.170303</v>
+        <v>23.170303000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.344500</v>
+        <v>-91.344499999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>83423.669939</v>
+        <v>83423.669938999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.173242</v>
+        <v>23.173241999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.560000</v>
+        <v>1229.56</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.663500</v>
+        <v>-86.663499999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>83434.532818</v>
+        <v>83434.532818000007</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.176259</v>
+        <v>23.176259000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.720000</v>
+        <v>1236.72</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.694400</v>
+        <v>-89.694400000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>83445.152662</v>
+        <v>83445.152661999993</v>
       </c>
       <c r="AP4" s="1">
         <v>23.179209</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.354000</v>
+        <v>-101.354</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>83456.141527</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.182262</v>
+        <v>23.182262000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1254.450000</v>
+        <v>1254.45</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.486000</v>
+        <v>-120.486</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>83466.801544</v>
+        <v>83466.801544000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.185223</v>
+        <v>23.185223000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.875000</v>
+        <v>-137.875</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>83477.709102</v>
+        <v>83477.709101999993</v>
       </c>
       <c r="BE4" s="1">
         <v>23.188253</v>
       </c>
       <c r="BF4" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.789000</v>
+        <v>-219.78899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>83489.113083</v>
+        <v>83489.113083000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.191420</v>
+        <v>23.191420000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.350000</v>
+        <v>1372.35</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.242000</v>
+        <v>-356.24200000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>83499.891149</v>
+        <v>83499.891149000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.194414</v>
+        <v>23.194413999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1487.460000</v>
+        <v>1487.46</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.556000</v>
+        <v>-577.55600000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>83511.487613</v>
+        <v>83511.487613000005</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.197635</v>
+        <v>23.197634999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.660000</v>
+        <v>1619.66</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.722000</v>
+        <v>-826.72199999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>83523.522047</v>
+        <v>83523.522047000006</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.200978</v>
+        <v>23.200977999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.720000</v>
+        <v>1772.72</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1096.590000</v>
+        <v>-1096.5899999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>83535.117022</v>
+        <v>83535.117022000006</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.204199</v>
+        <v>23.204198999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2189.500000</v>
+        <v>2189.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1747.770000</v>
+        <v>-1747.77</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>83361.621907</v>
+        <v>83361.621906999993</v>
       </c>
       <c r="B5" s="1">
-        <v>23.156006</v>
+        <v>23.156006000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1152.190000</v>
+        <v>1152.19</v>
       </c>
       <c r="D5" s="1">
-        <v>-259.137000</v>
+        <v>-259.137</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>83371.717973</v>
+        <v>83371.717973000006</v>
       </c>
       <c r="G5" s="1">
         <v>23.158811</v>
       </c>
       <c r="H5" s="1">
-        <v>1173.930000</v>
+        <v>1173.93</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.863000</v>
+        <v>-216.863</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>83381.875545</v>
+        <v>83381.875545000003</v>
       </c>
       <c r="L5" s="1">
-        <v>23.161632</v>
+        <v>23.161632000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1201.580000</v>
+        <v>1201.58</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.628000</v>
+        <v>-151.62799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>83392.408090</v>
+        <v>83392.408089999997</v>
       </c>
       <c r="Q5" s="1">
         <v>23.164558</v>
       </c>
       <c r="R5" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.464000</v>
+        <v>-129.464</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>83402.952044</v>
+        <v>83402.952044000005</v>
       </c>
       <c r="V5" s="1">
-        <v>23.167487</v>
+        <v>23.167487000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1217.190000</v>
+        <v>1217.19</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.616000</v>
+        <v>-108.616</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>83413.789174</v>
+        <v>83413.789174000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.170497</v>
+        <v>23.170497000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.750000</v>
+        <v>1224.75</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.344400</v>
+        <v>-91.344399999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>83424.352470</v>
+        <v>83424.352469999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>23.173431</v>
+        <v>23.173431000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.680000</v>
+        <v>1229.68</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.639000</v>
+        <v>-86.638999999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>83434.881047</v>
+        <v>83434.881047000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.176356</v>
+        <v>23.176355999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.750000</v>
+        <v>1236.75</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.702700</v>
+        <v>-89.702699999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>83445.512261</v>
+        <v>83445.512260999996</v>
       </c>
       <c r="AP5" s="1">
         <v>23.179309</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.332000</v>
+        <v>-101.33199999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>83456.500629</v>
+        <v>83456.500629000002</v>
       </c>
       <c r="AU5" s="1">
         <v>23.182361</v>
       </c>
       <c r="AV5" s="1">
-        <v>1254.450000</v>
+        <v>1254.45</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.511000</v>
+        <v>-120.511</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>83467.517779</v>
+        <v>83467.517779000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.185422</v>
+        <v>23.185421999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.894000</v>
+        <v>-137.89400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>83478.409417</v>
+        <v>83478.409417000003</v>
       </c>
       <c r="BE5" s="1">
         <v>23.188447</v>
       </c>
       <c r="BF5" s="1">
-        <v>1302.600000</v>
+        <v>1302.5999999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.767000</v>
+        <v>-219.767</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>83489.539412</v>
+        <v>83489.539411999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.191539</v>
+        <v>23.191538999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.300000</v>
+        <v>1372.3</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.243000</v>
+        <v>-356.24299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>83500.299853</v>
+        <v>83500.299853000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.194528</v>
+        <v>23.194527999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1487.360000</v>
+        <v>1487.36</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.579000</v>
+        <v>-577.57899999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>83511.926574</v>
+        <v>83511.926573999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.197757</v>
+        <v>23.197756999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.580000</v>
+        <v>1619.58</v>
       </c>
       <c r="BV5" s="1">
-        <v>-826.654000</v>
+        <v>-826.654</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>83523.944636</v>
@@ -1477,1283 +1893,1283 @@
         <v>23.201096</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.700000</v>
+        <v>1772.7</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1096.440000</v>
+        <v>-1096.44</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>83535.669071</v>
+        <v>83535.669070999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.204353</v>
+        <v>23.204353000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2190.490000</v>
+        <v>2190.4899999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1748.770000</v>
+        <v>-1748.77</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>83361.960675</v>
+        <v>83361.960674999995</v>
       </c>
       <c r="B6" s="1">
-        <v>23.156100</v>
+        <v>23.156099999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1152.250000</v>
+        <v>1152.25</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.868000</v>
+        <v>-258.86799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>83372.060251</v>
+        <v>83372.060251000003</v>
       </c>
       <c r="G6" s="1">
-        <v>23.158906</v>
+        <v>23.158906000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.290000</v>
+        <v>1173.29</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.220000</v>
+        <v>-217.22</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>83382.222778</v>
+        <v>83382.222777999996</v>
       </c>
       <c r="L6" s="1">
-        <v>23.161729</v>
+        <v>23.161729000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1201.620000</v>
+        <v>1201.6199999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.658000</v>
+        <v>-151.65799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>83393.101995</v>
+        <v>83393.101995000005</v>
       </c>
       <c r="Q6" s="1">
-        <v>23.164751</v>
+        <v>23.164750999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1209.540000</v>
+        <v>1209.54</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.495000</v>
+        <v>-129.495</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>83403.638043</v>
+        <v>83403.638042999999</v>
       </c>
       <c r="V6" s="1">
-        <v>23.167677</v>
+        <v>23.167677000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.688000</v>
+        <v>-108.688</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>83414.136831</v>
+        <v>83414.136830999996</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.170594</v>
+        <v>23.170594000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.281900</v>
+        <v>-91.281899999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>83424.699669</v>
+        <v>83424.699668999994</v>
       </c>
       <c r="AF6" s="1">
-        <v>23.173528</v>
+        <v>23.173528000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.400000</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.672500</v>
+        <v>-86.672499999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>83435.229234</v>
+        <v>83435.229233999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.176453</v>
+        <v>23.176452999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.720000</v>
+        <v>1236.72</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.647900</v>
+        <v>-89.647900000000007</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>83446.231471</v>
+        <v>83446.231471000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.179509</v>
+        <v>23.179508999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.381000</v>
+        <v>-101.381</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>83457.221317</v>
+        <v>83457.221317000003</v>
       </c>
       <c r="AU6" s="1">
         <v>23.182561</v>
       </c>
       <c r="AV6" s="1">
-        <v>1254.440000</v>
+        <v>1254.44</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.475000</v>
+        <v>-120.47499999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>83467.878856</v>
+        <v>83467.878855999996</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.185522</v>
+        <v>23.185521999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.870000</v>
+        <v>-137.87</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>83478.830025</v>
+        <v>83478.830025000003</v>
       </c>
       <c r="BE6" s="1">
         <v>23.188564</v>
       </c>
       <c r="BF6" s="1">
-        <v>1302.580000</v>
+        <v>1302.58</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.777000</v>
+        <v>-219.77699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>83489.914121</v>
+        <v>83489.914120999994</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.191643</v>
+        <v>23.191642999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.330000</v>
+        <v>1372.33</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.235000</v>
+        <v>-356.23500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>83500.697147</v>
+        <v>83500.697146999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.194638</v>
+        <v>23.194638000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1487.410000</v>
+        <v>1487.41</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.606000</v>
+        <v>-577.60599999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>83512.353132</v>
+        <v>83512.353132000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.197876</v>
+        <v>23.197876000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.700000</v>
+        <v>1619.7</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.745000</v>
+        <v>-826.745</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>83524.379165</v>
+        <v>83524.379165000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.201216</v>
+        <v>23.201215999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.590000</v>
+        <v>1772.59</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1096.370000</v>
+        <v>-1096.3699999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>83536.200284</v>
+        <v>83536.200284000006</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.204500</v>
+        <v>23.204499999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2189.160000</v>
+        <v>2189.16</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1747.670000</v>
+        <v>-1747.67</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>83362.304402</v>
+        <v>83362.304401999994</v>
       </c>
       <c r="B7" s="1">
-        <v>23.156196</v>
+        <v>23.156196000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1152.140000</v>
+        <v>1152.1400000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.808000</v>
+        <v>-258.80799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>83372.405430</v>
+        <v>83372.405429999999</v>
       </c>
       <c r="G7" s="1">
-        <v>23.159002</v>
+        <v>23.159002000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1173.930000</v>
+        <v>1173.93</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.886000</v>
+        <v>-216.886</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>83382.913671</v>
+        <v>83382.913671000002</v>
       </c>
       <c r="L7" s="1">
-        <v>23.161920</v>
+        <v>23.161919999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1201.660000</v>
+        <v>1201.6600000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.640000</v>
+        <v>-151.63999999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>83393.454648</v>
+        <v>83393.454647999999</v>
       </c>
       <c r="Q7" s="1">
         <v>23.164849</v>
       </c>
       <c r="R7" s="1">
-        <v>1209.550000</v>
+        <v>1209.55</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.541000</v>
+        <v>-129.541</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>83403.984251</v>
+        <v>83403.984251000002</v>
       </c>
       <c r="V7" s="1">
         <v>23.167773</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.940000</v>
+        <v>1216.94</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.529000</v>
+        <v>-108.529</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>83414.488989</v>
+        <v>83414.488989000005</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.170691</v>
+        <v>23.170691000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.710000</v>
+        <v>1224.71</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.224300</v>
+        <v>-91.224299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>83425.069151</v>
+        <v>83425.069151000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.173630</v>
+        <v>23.173629999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.799300</v>
+        <v>-86.799300000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>83435.893841</v>
+        <v>83435.893840999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.176637</v>
+        <v>23.176636999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.760000</v>
+        <v>1236.76</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.671500</v>
+        <v>-89.671499999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>83446.631731</v>
+        <v>83446.631731000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.179620</v>
+        <v>23.17962</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.356000</v>
+        <v>-101.35599999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>83457.598278</v>
+        <v>83457.598278000005</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.182666</v>
+        <v>23.182666000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.491000</v>
+        <v>-120.491</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>83468.239446</v>
+        <v>83468.239446000007</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.185622</v>
+        <v>23.185621999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.862000</v>
+        <v>-137.86199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>83479.286839</v>
+        <v>83479.286838999993</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.188691</v>
+        <v>23.188690999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.793000</v>
+        <v>-219.79300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>83490.295545</v>
+        <v>83490.295545000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.191749</v>
+        <v>23.191749000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.340000</v>
+        <v>1372.34</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.213000</v>
+        <v>-356.21300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>83501.132667</v>
+        <v>83501.132666999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.194759</v>
+        <v>23.194759000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1487.390000</v>
+        <v>1487.39</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.604000</v>
+        <v>-577.60400000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>83512.798082</v>
+        <v>83512.798081999994</v>
       </c>
       <c r="BT7" s="1">
-        <v>23.197999</v>
+        <v>23.197998999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.620000</v>
+        <v>1619.62</v>
       </c>
       <c r="BV7" s="1">
-        <v>-826.684000</v>
+        <v>-826.68399999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>83524.788827</v>
+        <v>83524.788826999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.201330</v>
+        <v>23.201329999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.780000</v>
+        <v>1772.78</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1096.530000</v>
+        <v>-1096.53</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>83536.716124</v>
+        <v>83536.716123999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.204643</v>
+        <v>23.204643000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2188.300000</v>
+        <v>2188.3000000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1749.700000</v>
+        <v>-1749.7</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>83362.987889</v>
+        <v>83362.987888999996</v>
       </c>
       <c r="B8" s="1">
-        <v>23.156386</v>
+        <v>23.156386000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1152.510000</v>
+        <v>1152.51</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.683000</v>
+        <v>-258.68299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>83373.095860</v>
+        <v>83373.095860000001</v>
       </c>
       <c r="G8" s="1">
-        <v>23.159193</v>
+        <v>23.159192999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1173.880000</v>
+        <v>1173.8800000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.251000</v>
+        <v>-217.251</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>83383.262890</v>
+        <v>83383.262889999998</v>
       </c>
       <c r="L8" s="1">
-        <v>23.162017</v>
+        <v>23.162016999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.571000</v>
+        <v>-151.571</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>83393.803833</v>
+        <v>83393.803832999998</v>
       </c>
       <c r="Q8" s="1">
         <v>23.164946</v>
       </c>
       <c r="R8" s="1">
-        <v>1209.560000</v>
+        <v>1209.56</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.546000</v>
+        <v>-129.54599999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>83404.327948</v>
+        <v>83404.327948000006</v>
       </c>
       <c r="V8" s="1">
         <v>23.167869</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.930000</v>
+        <v>1216.93</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.519000</v>
+        <v>-108.51900000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>83415.168044</v>
+        <v>83415.168044000005</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.170880</v>
+        <v>23.17088</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.800000</v>
+        <v>1224.8</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.389900</v>
+        <v>-91.389899999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>83425.783886</v>
+        <v>83425.783886000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.173829</v>
+        <v>23.173829000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.580000</v>
+        <v>1229.58</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.641800</v>
+        <v>-86.641800000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>83436.273280</v>
+        <v>83436.273279999994</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.176743</v>
+        <v>23.176742999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.750000</v>
+        <v>1236.75</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.665900</v>
+        <v>-89.665899999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>83446.979922</v>
+        <v>83446.979921999999</v>
       </c>
       <c r="AP8" s="1">
         <v>23.179717</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.337000</v>
+        <v>-101.337</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>83457.963332</v>
+        <v>83457.963331999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.182768</v>
+        <v>23.182767999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1254.450000</v>
+        <v>1254.45</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.496000</v>
+        <v>-120.496</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>83468.599543</v>
+        <v>83468.599543000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>23.185722</v>
+        <v>23.185721999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.873000</v>
+        <v>-137.87299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>83479.558650</v>
+        <v>83479.558650000006</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.188766</v>
+        <v>23.188766000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1302.580000</v>
+        <v>1302.58</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.796000</v>
+        <v>-219.79599999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>83490.746408</v>
+        <v>83490.746408000006</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.191874</v>
+        <v>23.191873999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.310000</v>
+        <v>1372.31</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.265000</v>
+        <v>-356.26499999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>83501.516042</v>
+        <v>83501.516042000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.194866</v>
+        <v>23.194866000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1487.390000</v>
+        <v>1487.39</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.598000</v>
+        <v>-577.59799999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>83513.196332</v>
+        <v>83513.196332000007</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.198110</v>
+        <v>23.19811</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.750000</v>
+        <v>1619.75</v>
       </c>
       <c r="BV8" s="1">
-        <v>-826.733000</v>
+        <v>-826.73299999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>83525.236392</v>
+        <v>83525.236392000006</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.201455</v>
+        <v>23.201454999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.810000</v>
+        <v>1772.81</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1096.460000</v>
+        <v>-1096.46</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>83537.233490</v>
+        <v>83537.233489999999</v>
       </c>
       <c r="CD8" s="1">
         <v>23.204787</v>
       </c>
       <c r="CE8" s="1">
-        <v>2189.620000</v>
+        <v>2189.62</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1749.890000</v>
+        <v>-1749.89</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>83363.332609</v>
+        <v>83363.332609000005</v>
       </c>
       <c r="B9" s="1">
-        <v>23.156481</v>
+        <v>23.156480999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1152.420000</v>
+        <v>1152.42</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.885000</v>
+        <v>-258.88499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>83373.440094</v>
+        <v>83373.440094000005</v>
       </c>
       <c r="G9" s="1">
-        <v>23.159289</v>
+        <v>23.159289000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1173.640000</v>
+        <v>1173.6400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-217.180000</v>
+        <v>-217.18</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>83383.609063</v>
+        <v>83383.609062999996</v>
       </c>
       <c r="L9" s="1">
-        <v>23.162114</v>
+        <v>23.162113999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1201.590000</v>
+        <v>1201.5899999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.629000</v>
+        <v>-151.62899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>83394.474460</v>
+        <v>83394.474459999998</v>
       </c>
       <c r="Q9" s="1">
         <v>23.165132</v>
       </c>
       <c r="R9" s="1">
-        <v>1209.460000</v>
+        <v>1209.46</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.557000</v>
+        <v>-129.55699999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>83404.989611</v>
+        <v>83404.989610999997</v>
       </c>
       <c r="V9" s="1">
         <v>23.168053</v>
       </c>
       <c r="W9" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.650000</v>
+        <v>-108.65</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>83415.545470</v>
+        <v>83415.545469999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.170985</v>
+        <v>23.170985000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.376600</v>
+        <v>-91.376599999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>83426.107774</v>
+        <v>83426.107774000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.173919</v>
+        <v>23.173919000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.550000</v>
+        <v>1229.55</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.636600</v>
+        <v>-86.636600000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>83436.623456</v>
+        <v>83436.623456000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.176840</v>
+        <v>23.176839999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.700000</v>
+        <v>1236.7</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.677600</v>
+        <v>-89.677599999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>83447.351427</v>
+        <v>83447.351427000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.179820</v>
+        <v>23.179819999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.334000</v>
+        <v>-101.334</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>83458.330869</v>
+        <v>83458.330868999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.182870</v>
+        <v>23.182870000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.471000</v>
+        <v>-120.471</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>83469.065782</v>
+        <v>83469.065782000005</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.185852</v>
+        <v>23.185852000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.855000</v>
+        <v>-137.85499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>83480.086428</v>
+        <v>83480.086427999995</v>
       </c>
       <c r="BE9" s="1">
-        <v>23.188913</v>
+        <v>23.188912999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1302.590000</v>
+        <v>1302.5899999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.815000</v>
+        <v>-219.815</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>83491.050456</v>
+        <v>83491.050455999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>23.191958</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.310000</v>
+        <v>1372.31</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.225000</v>
+        <v>-356.22500000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>83501.935695</v>
+        <v>83501.935694999993</v>
       </c>
       <c r="BO9" s="1">
         <v>23.194982</v>
       </c>
       <c r="BP9" s="1">
-        <v>1487.400000</v>
+        <v>1487.4</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.594000</v>
+        <v>-577.59400000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>83513.626362</v>
+        <v>83513.626361999995</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.198230</v>
+        <v>23.198229999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.620000</v>
+        <v>1619.62</v>
       </c>
       <c r="BV9" s="1">
-        <v>-826.748000</v>
+        <v>-826.74800000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>83525.655836</v>
+        <v>83525.655836000005</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.201571</v>
+        <v>23.201571000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.780000</v>
+        <v>1772.78</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1096.360000</v>
+        <v>-1096.3599999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>83537.752764</v>
+        <v>83537.752764000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.204931</v>
+        <v>23.204930999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>2189.450000</v>
+        <v>2189.4499999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1750.420000</v>
+        <v>-1750.42</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>83363.672896</v>
+        <v>83363.672896000004</v>
       </c>
       <c r="B10" s="1">
-        <v>23.156576</v>
+        <v>23.156576000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1152.330000</v>
+        <v>1152.33</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.706000</v>
+        <v>-258.70600000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>83374.101778</v>
+        <v>83374.101777999997</v>
       </c>
       <c r="G10" s="1">
-        <v>23.159473</v>
+        <v>23.159472999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1173.890000</v>
+        <v>1173.8900000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.023000</v>
+        <v>-217.023</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>83384.270265</v>
+        <v>83384.270264999999</v>
       </c>
       <c r="L10" s="1">
-        <v>23.162297</v>
+        <v>23.162296999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.575000</v>
+        <v>-151.57499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>83394.849895</v>
+        <v>83394.849895000007</v>
       </c>
       <c r="Q10" s="1">
         <v>23.165236</v>
       </c>
       <c r="R10" s="1">
-        <v>1209.480000</v>
+        <v>1209.48</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.509000</v>
+        <v>-129.50899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>83405.357146</v>
+        <v>83405.357145999995</v>
       </c>
       <c r="V10" s="1">
-        <v>23.168155</v>
+        <v>23.168154999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.520000</v>
+        <v>-108.52</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>83415.890683</v>
+        <v>83415.890683000005</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.171081</v>
+        <v>23.171081000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.321100</v>
+        <v>-91.321100000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>83426.468861</v>
+        <v>83426.468861000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.174019</v>
+        <v>23.174019000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.605700</v>
+        <v>-86.605699999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>83436.970655</v>
+        <v>83436.970654999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.176936</v>
+        <v>23.176936000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.730000</v>
+        <v>1236.73</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.667000</v>
+        <v>-89.667000000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>83447.813205</v>
+        <v>83447.813204999999</v>
       </c>
       <c r="AP10" s="1">
         <v>23.179948</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.348000</v>
+        <v>-101.348</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>83458.803555</v>
+        <v>83458.803555000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.183001</v>
+        <v>23.183001000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.481000</v>
+        <v>-120.48099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>83469.316262</v>
+        <v>83469.316261999993</v>
       </c>
       <c r="AZ10" s="1">
         <v>23.185921</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.881000</v>
+        <v>-137.881</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>83480.280823</v>
+        <v>83480.280822999994</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.188967</v>
+        <v>23.188967000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.774000</v>
+        <v>-219.774</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>83491.439328</v>
+        <v>83491.439327999993</v>
       </c>
       <c r="BJ10" s="1">
-        <v>23.192066</v>
+        <v>23.192066000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.350000</v>
+        <v>1372.35</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.223000</v>
+        <v>-356.22300000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>83502.334970</v>
+        <v>83502.334969999996</v>
       </c>
       <c r="BO10" s="1">
         <v>23.195093</v>
       </c>
       <c r="BP10" s="1">
-        <v>1487.390000</v>
+        <v>1487.39</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.572000</v>
+        <v>-577.572</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>83514.039035</v>
+        <v>83514.039034999994</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.198344</v>
+        <v>23.198343999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.680000</v>
+        <v>1619.68</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.766000</v>
+        <v>-826.76599999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>83526.524825</v>
@@ -2762,31 +3178,31 @@
         <v>23.201812</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1772.830000</v>
+        <v>1772.83</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1096.350000</v>
+        <v>-1096.3499999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>83538.304855</v>
+        <v>83538.304854999995</v>
       </c>
       <c r="CD10" s="1">
         <v>23.205085</v>
       </c>
       <c r="CE10" s="1">
-        <v>2188.090000</v>
+        <v>2188.09</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1749.050000</v>
+        <v>-1749.05</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>83364.319183</v>
       </c>
@@ -2794,2234 +3210,2234 @@
         <v>23.156755</v>
       </c>
       <c r="C11" s="1">
-        <v>1152.150000</v>
+        <v>1152.1500000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.974000</v>
+        <v>-258.97399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>83374.473250</v>
+        <v>83374.473249999995</v>
       </c>
       <c r="G11" s="1">
-        <v>23.159576</v>
+        <v>23.159576000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1174.260000</v>
+        <v>1174.26</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.583000</v>
+        <v>-217.583</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>83384.644221</v>
+        <v>83384.644220999995</v>
       </c>
       <c r="L11" s="1">
-        <v>23.162401</v>
+        <v>23.162400999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1201.680000</v>
+        <v>1201.68</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.416000</v>
+        <v>-151.416</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>83395.189656</v>
+        <v>83395.189656000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>23.165330</v>
+        <v>23.165330000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.428000</v>
+        <v>-129.428</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>83405.703353</v>
+        <v>83405.703353000004</v>
       </c>
       <c r="V11" s="1">
-        <v>23.168251</v>
+        <v>23.168251000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1217.200000</v>
+        <v>1217.2</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.616000</v>
+        <v>-108.616</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>83416.250283</v>
+        <v>83416.250283000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.171181</v>
+        <v>23.171181000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.313500</v>
+        <v>-91.313500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>83426.894925</v>
+        <v>83426.894925000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>23.174137</v>
+        <v>23.174137000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.632400</v>
+        <v>-86.632400000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>83437.396752</v>
+        <v>83437.396752000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.177055</v>
+        <v>23.177054999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.720000</v>
+        <v>1236.72</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.665900</v>
+        <v>-89.665899999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>83448.071651</v>
+        <v>83448.071651000006</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.180020</v>
+        <v>23.180019999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.322000</v>
+        <v>-101.322</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>83459.053044</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.183070</v>
+        <v>23.183070000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1254.440000</v>
+        <v>1254.44</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.503000</v>
+        <v>-120.503</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>83469.673878</v>
+        <v>83469.673878000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>23.186021</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.851000</v>
+        <v>-137.851</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>83480.642406</v>
+        <v>83480.642405999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.189067</v>
+        <v>23.189067000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1302.590000</v>
+        <v>1302.5899999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.795000</v>
+        <v>-219.79499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>83491.814334</v>
+        <v>83491.814333999995</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.192171</v>
+        <v>23.192170999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.320000</v>
+        <v>1372.32</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.234000</v>
+        <v>-356.23399999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>83503.148872</v>
+        <v>83503.148872000005</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.195319</v>
+        <v>23.195319000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.390000</v>
+        <v>1487.39</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.586000</v>
+        <v>-577.58600000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>83514.891200</v>
+        <v>83514.891199999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.198581</v>
+        <v>23.198581000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.750000</v>
+        <v>1619.75</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.690000</v>
+        <v>-826.69</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>83526.950432</v>
+        <v>83526.950431999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.201931</v>
+        <v>23.201930999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.840000</v>
+        <v>1772.84</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1096.440000</v>
+        <v>-1096.44</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>83538.835191</v>
+        <v>83538.835191000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.205232</v>
+        <v>23.205231999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2189.710000</v>
+        <v>2189.71</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1750.020000</v>
+        <v>-1750.02</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>83364.694623</v>
+        <v>83364.694623000003</v>
       </c>
       <c r="B12" s="1">
-        <v>23.156860</v>
+        <v>23.156860000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1152.120000</v>
+        <v>1152.1199999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.754000</v>
+        <v>-258.75400000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>83374.817969</v>
+        <v>83374.817968999996</v>
       </c>
       <c r="G12" s="1">
         <v>23.159672</v>
       </c>
       <c r="H12" s="1">
-        <v>1173.550000</v>
+        <v>1173.55</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.910000</v>
+        <v>-217.91</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>83384.989924</v>
+        <v>83384.989923999994</v>
       </c>
       <c r="L12" s="1">
-        <v>23.162497</v>
+        <v>23.162496999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1201.310000</v>
+        <v>1201.31</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.572000</v>
+        <v>-151.572</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>83395.549255</v>
+        <v>83395.549255000005</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.165430</v>
+        <v>23.165430000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1209.580000</v>
+        <v>1209.58</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.492000</v>
+        <v>-129.49199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>83406.054521</v>
+        <v>83406.054520999998</v>
       </c>
       <c r="V12" s="1">
-        <v>23.168348</v>
+        <v>23.168348000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.461000</v>
+        <v>-108.461</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>83416.688747</v>
+        <v>83416.688746999993</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.171302</v>
+        <v>23.171302000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.740000</v>
+        <v>1224.74</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.303500</v>
+        <v>-91.3035</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>83427.174172</v>
+        <v>83427.174171999999</v>
       </c>
       <c r="AF12" s="1">
         <v>23.174215</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.600000</v>
+        <v>1229.5999999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.676000</v>
+        <v>-86.676000000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>83437.684398</v>
+        <v>83437.684397999998</v>
       </c>
       <c r="AK12" s="1">
         <v>23.177135</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.730000</v>
+        <v>1236.73</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.663600</v>
+        <v>-89.663600000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>83448.430224</v>
+        <v>83448.430223999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.180120</v>
+        <v>23.180119999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.342000</v>
+        <v>-101.342</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>83459.428515</v>
+        <v>83459.428515000007</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.183175</v>
+        <v>23.183174999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.495000</v>
+        <v>-120.495</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>83470.039428</v>
+        <v>83470.039428000004</v>
       </c>
       <c r="AZ12" s="1">
-        <v>23.186122</v>
+        <v>23.186122000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.876000</v>
+        <v>-137.876</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>83481.361604</v>
+        <v>83481.361604000005</v>
       </c>
       <c r="BE12" s="1">
-        <v>23.189267</v>
+        <v>23.189267000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1302.590000</v>
+        <v>1302.5899999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.796000</v>
+        <v>-219.79599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>83492.565238</v>
+        <v>83492.565237999996</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.192379</v>
+        <v>23.192378999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.290000</v>
+        <v>1372.29</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.229000</v>
+        <v>-356.22899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>83503.546167</v>
+        <v>83503.546166999993</v>
       </c>
       <c r="BO12" s="1">
-        <v>23.195429</v>
+        <v>23.195429000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1487.380000</v>
+        <v>1487.38</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.606000</v>
+        <v>-577.60599999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>83515.327144</v>
+        <v>83515.327143999995</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.198702</v>
+        <v>23.198702000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.720000</v>
+        <v>1619.72</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.759000</v>
+        <v>-826.75900000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>83527.396792</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.202055</v>
+        <v>23.202055000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.680000</v>
+        <v>1772.68</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1096.640000</v>
+        <v>-1096.6400000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>83539.670334</v>
+        <v>83539.670333999995</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.205464</v>
+        <v>23.205463999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2190.980000</v>
+        <v>2190.98</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1749.170000</v>
+        <v>-1749.17</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>83365.037390</v>
+        <v>83365.037389999998</v>
       </c>
       <c r="B13" s="1">
         <v>23.156955</v>
       </c>
       <c r="C13" s="1">
-        <v>1152.400000</v>
+        <v>1152.4000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.835000</v>
+        <v>-258.83499999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>83375.162724</v>
+        <v>83375.162723999994</v>
       </c>
       <c r="G13" s="1">
-        <v>23.159767</v>
+        <v>23.159766999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1173.440000</v>
+        <v>1173.44</v>
       </c>
       <c r="I13" s="1">
-        <v>-217.122000</v>
+        <v>-217.12200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>83385.335140</v>
+        <v>83385.335139999996</v>
       </c>
       <c r="L13" s="1">
-        <v>23.162593</v>
+        <v>23.162593000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.585000</v>
+        <v>-151.58500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>83395.976342</v>
+        <v>83395.976341999994</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.165549</v>
+        <v>23.165548999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1209.540000</v>
+        <v>1209.54</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.542000</v>
+        <v>-129.542</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>83406.503400</v>
+        <v>83406.503400000001</v>
       </c>
       <c r="V13" s="1">
-        <v>23.168473</v>
+        <v>23.168472999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.575000</v>
+        <v>-108.575</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>83416.952620</v>
+        <v>83416.952619999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.171376</v>
+        <v>23.171375999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.750000</v>
+        <v>1224.75</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.330800</v>
+        <v>-91.330799999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>83427.516444</v>
+        <v>83427.516443999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.174310</v>
+        <v>23.174309999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.686400</v>
+        <v>-86.686400000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>83438.036565</v>
+        <v>83438.036565000002</v>
       </c>
       <c r="AK13" s="1">
         <v>23.177232</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.760000</v>
+        <v>1236.76</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.660300</v>
+        <v>-89.660300000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>83448.797762</v>
+        <v>83448.797762000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.180222</v>
+        <v>23.180222000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.369000</v>
+        <v>-101.369</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>83459.788114</v>
+        <v>83459.788113999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>23.183274</v>
+        <v>23.183274000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.479000</v>
+        <v>-120.479</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>83470.747219</v>
+        <v>83470.747218999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.186319</v>
+        <v>23.186319000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.884000</v>
+        <v>-137.88399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>83481.723452</v>
+        <v>83481.723452000006</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.189368</v>
+        <v>23.189368000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.774000</v>
+        <v>-219.774</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>83492.941742</v>
+        <v>83492.941741999995</v>
       </c>
       <c r="BJ13" s="1">
         <v>23.192484</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.350000</v>
+        <v>1372.35</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.203000</v>
+        <v>-356.20299999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>83503.959336</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.195544</v>
+        <v>23.195544000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1487.370000</v>
+        <v>1487.37</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.608000</v>
+        <v>-577.60799999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>83515.737335</v>
+        <v>83515.737334999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.198816</v>
+        <v>23.198816000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.680000</v>
+        <v>1619.68</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.710000</v>
+        <v>-826.71</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>83528.159678</v>
+        <v>83528.159677999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.202267</v>
+        <v>23.202266999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.700000</v>
+        <v>1772.7</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1096.340000</v>
+        <v>-1096.3399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>83540.170759</v>
+        <v>83540.170759000001</v>
       </c>
       <c r="CD13" s="1">
         <v>23.205603</v>
       </c>
       <c r="CE13" s="1">
-        <v>2189.310000</v>
+        <v>2189.31</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1747.650000</v>
+        <v>-1747.65</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>83365.382078</v>
+        <v>83365.382077999995</v>
       </c>
       <c r="B14" s="1">
-        <v>23.157051</v>
+        <v>23.157050999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1152.290000</v>
+        <v>1152.29</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.897000</v>
+        <v>-258.89699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>83375.585776</v>
+        <v>83375.585776000007</v>
       </c>
       <c r="G14" s="1">
-        <v>23.159885</v>
+        <v>23.159884999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1173.810000</v>
+        <v>1173.81</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.132000</v>
+        <v>-217.13200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>83385.767155</v>
+        <v>83385.767154999994</v>
       </c>
       <c r="L14" s="1">
         <v>23.162713</v>
       </c>
       <c r="M14" s="1">
-        <v>1201.560000</v>
+        <v>1201.56</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.669000</v>
+        <v>-151.66900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>83396.240677</v>
+        <v>83396.240676999994</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.165622</v>
+        <v>23.165621999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1209.550000</v>
+        <v>1209.55</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.580000</v>
+        <v>-129.58000000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>83406.757351</v>
+        <v>83406.757350999993</v>
       </c>
       <c r="V14" s="1">
-        <v>23.168544</v>
+        <v>23.168544000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.920000</v>
+        <v>1216.92</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.566000</v>
+        <v>-108.566</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>83417.297337</v>
+        <v>83417.297336999996</v>
       </c>
       <c r="AA14" s="1">
         <v>23.171471</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.349600</v>
+        <v>-91.349599999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>83427.862619</v>
+        <v>83427.862619000007</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.174406</v>
+        <v>23.174406000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.580000</v>
+        <v>1229.58</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.645000</v>
+        <v>-86.644999999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>83438.381775</v>
+        <v>83438.381775000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.177328</v>
+        <v>23.177327999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.760000</v>
+        <v>1236.76</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.678500</v>
+        <v>-89.6785</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>83449.516494</v>
+        <v>83449.516493999996</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.180421</v>
+        <v>23.180420999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.341000</v>
+        <v>-101.34099999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>83460.514288</v>
+        <v>83460.514288000006</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.183476</v>
+        <v>23.183475999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.487000</v>
+        <v>-120.48699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>83471.097394</v>
+        <v>83471.097393999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.186416</v>
+        <v>23.186416000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.903000</v>
+        <v>-137.90299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>83482.085800</v>
+        <v>83482.085800000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.189468</v>
+        <v>23.189468000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.807000</v>
+        <v>-219.80699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>83493.319157</v>
+        <v>83493.319157000005</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.192589</v>
+        <v>23.192589000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.310000</v>
+        <v>1372.31</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.245000</v>
+        <v>-356.245</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>83504.679558</v>
+        <v>83504.679558000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.195744</v>
+        <v>23.195744000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1487.390000</v>
+        <v>1487.39</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.617000</v>
+        <v>-577.61699999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>83516.532960</v>
+        <v>83516.532959999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.199037</v>
+        <v>23.199037000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.770000</v>
+        <v>1619.77</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.759000</v>
+        <v>-826.75900000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>83528.277199</v>
+        <v>83528.277199000004</v>
       </c>
       <c r="BY14" s="1">
         <v>23.202299</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.840000</v>
+        <v>1772.84</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1096.480000</v>
+        <v>-1096.48</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>83540.788806</v>
+        <v>83540.788805999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.205775</v>
+        <v>23.205774999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2188.860000</v>
+        <v>2188.86</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1750.900000</v>
+        <v>-1750.9</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>83365.804670</v>
+        <v>83365.804669999998</v>
       </c>
       <c r="B15" s="1">
-        <v>23.157168</v>
+        <v>23.157167999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1152.390000</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.978000</v>
+        <v>-258.97800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>83375.868529</v>
+        <v>83375.868528999999</v>
       </c>
       <c r="G15" s="1">
-        <v>23.159963</v>
+        <v>23.159963000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.250000</v>
+        <v>1173.25</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.728000</v>
+        <v>-217.72800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>83386.044915</v>
+        <v>83386.044915000006</v>
       </c>
       <c r="L15" s="1">
-        <v>23.162790</v>
+        <v>23.162790000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.590000</v>
+        <v>-151.59</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>83396.592868</v>
+        <v>83396.592868000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.165720</v>
+        <v>23.16572</v>
       </c>
       <c r="R15" s="1">
-        <v>1209.590000</v>
+        <v>1209.5899999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.515000</v>
+        <v>-129.51499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>83407.099591</v>
+        <v>83407.099591000006</v>
       </c>
       <c r="V15" s="1">
-        <v>23.168639</v>
+        <v>23.168638999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.301000</v>
+        <v>-108.301</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>83417.647513</v>
+        <v>83417.647513000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.171569</v>
+        <v>23.171569000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.295000</v>
+        <v>-91.295000000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>83428.548588</v>
+        <v>83428.548588000005</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.174597</v>
+        <v>23.174596999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.622800</v>
+        <v>-86.622799999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>83439.078193</v>
+        <v>83439.078192999994</v>
       </c>
       <c r="AK15" s="1">
         <v>23.177522</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.720000</v>
+        <v>1236.72</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.671400</v>
+        <v>-89.671400000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>83449.875568</v>
+        <v>83449.875568000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.180521</v>
+        <v>23.180520999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.354000</v>
+        <v>-101.354</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>83460.896672</v>
+        <v>83460.896672000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.183582</v>
+        <v>23.183582000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1254.420000</v>
+        <v>1254.42</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.489000</v>
+        <v>-120.489</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>83471.467906</v>
+        <v>83471.467906000005</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.186519</v>
+        <v>23.186519000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.876000</v>
+        <v>-137.876</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>83482.787107</v>
+        <v>83482.787106999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>23.189663</v>
+        <v>23.189662999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.803000</v>
+        <v>-219.803</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>83494.039348</v>
+        <v>83494.039348000006</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.192789</v>
+        <v>23.192789000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.310000</v>
+        <v>1372.31</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.188000</v>
+        <v>-356.18799999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>83504.793110</v>
+        <v>83504.793109999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>23.195776</v>
+        <v>23.195775999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1487.350000</v>
+        <v>1487.35</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.617000</v>
+        <v>-577.61699999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>83517.036360</v>
+        <v>83517.036359999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.199177</v>
+        <v>23.199176999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.750000</v>
+        <v>1619.75</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.778000</v>
+        <v>-826.77800000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>83528.689407</v>
+        <v>83528.689406999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.202414</v>
+        <v>23.202414000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.870000</v>
+        <v>1772.87</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1096.500000</v>
+        <v>-1096.5</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>83541.331398</v>
+        <v>83541.331397999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.205925</v>
+        <v>23.205925000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.260000</v>
+        <v>2190.2600000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1748.810000</v>
+        <v>-1748.81</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>83366.079454</v>
+        <v>83366.079454000006</v>
       </c>
       <c r="B16" s="1">
-        <v>23.157244</v>
+        <v>23.157243999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1152.320000</v>
+        <v>1152.32</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.769000</v>
+        <v>-258.76900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>83376.211728</v>
+        <v>83376.211727999995</v>
       </c>
       <c r="G16" s="1">
         <v>23.160059</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.400000</v>
+        <v>1173.4000000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.260000</v>
+        <v>-217.26</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>83386.389138</v>
+        <v>83386.389137999999</v>
       </c>
       <c r="L16" s="1">
         <v>23.162886</v>
       </c>
       <c r="M16" s="1">
-        <v>1201.340000</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.842000</v>
+        <v>-151.84200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>83396.941061</v>
+        <v>83396.941061000005</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.165817</v>
+        <v>23.165817000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1209.500000</v>
+        <v>1209.5</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.492000</v>
+        <v>-129.49199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>83407.444806</v>
       </c>
       <c r="V16" s="1">
-        <v>23.168735</v>
+        <v>23.168735000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1217.070000</v>
+        <v>1217.07</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.600000</v>
+        <v>-108.6</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>83418.345384</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.171763</v>
+        <v>23.171762999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.326400</v>
+        <v>-91.326400000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>83428.892314</v>
+        <v>83428.892313999997</v>
       </c>
       <c r="AF16" s="1">
         <v>23.174692</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.550000</v>
+        <v>1229.55</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.645700</v>
+        <v>-86.645700000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>83439.427340</v>
+        <v>83439.427339999995</v>
       </c>
       <c r="AK16" s="1">
         <v>23.177619</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.740000</v>
+        <v>1236.74</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.660100</v>
+        <v>-89.6601</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>83450.237646</v>
+        <v>83450.237645999994</v>
       </c>
       <c r="AP16" s="1">
         <v>23.180622</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.354000</v>
+        <v>-101.354</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>83461.258751</v>
+        <v>83461.258751000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.183683</v>
+        <v>23.183682999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1254.450000</v>
+        <v>1254.45</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.492000</v>
+        <v>-120.492</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>83472.143986</v>
+        <v>83472.143985999995</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.186707</v>
+        <v>23.186706999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.873000</v>
+        <v>-137.87299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>83483.189860</v>
+        <v>83483.189859999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>23.189775</v>
+        <v>23.189775000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1302.590000</v>
+        <v>1302.5899999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.766000</v>
+        <v>-219.76599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>83494.442595</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.192901</v>
+        <v>23.192900999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.330000</v>
+        <v>1372.33</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.260000</v>
+        <v>-356.26</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>83505.205781</v>
+        <v>83505.205780999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.195890</v>
+        <v>23.195889999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.400000</v>
+        <v>1487.4</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.583000</v>
+        <v>-577.58299999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>83517.469863</v>
+        <v>83517.469863000006</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.199297</v>
+        <v>23.199297000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.760000</v>
+        <v>1619.76</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.733000</v>
+        <v>-826.73299999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>83529.106007</v>
+        <v>83529.106006999995</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.202529</v>
+        <v>23.202528999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.790000</v>
+        <v>1772.79</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1096.500000</v>
+        <v>-1096.5</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>83541.868069</v>
+        <v>83541.868069000004</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.206074</v>
+        <v>23.206074000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2187.860000</v>
+        <v>2187.86</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1748.890000</v>
+        <v>-1748.89</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>83366.425165</v>
+        <v>83366.425164999993</v>
       </c>
       <c r="B17" s="1">
-        <v>23.157340</v>
+        <v>23.157340000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1152.350000</v>
+        <v>1152.3499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.800000</v>
+        <v>-258.8</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>83376.554959</v>
+        <v>83376.554959000001</v>
       </c>
       <c r="G17" s="1">
-        <v>23.160154</v>
+        <v>23.160153999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1173.150000</v>
+        <v>1173.1500000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.157000</v>
+        <v>-217.15700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>83386.738819</v>
+        <v>83386.738819000006</v>
       </c>
       <c r="L17" s="1">
-        <v>23.162983</v>
+        <v>23.162983000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1201.540000</v>
+        <v>1201.54</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.699000</v>
+        <v>-151.69900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>83397.639892</v>
+        <v>83397.639892000007</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.166011</v>
+        <v>23.166011000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.514000</v>
+        <v>-129.51400000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>83408.129782</v>
+        <v>83408.129782000004</v>
       </c>
       <c r="V17" s="1">
-        <v>23.168925</v>
+        <v>23.168925000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.960000</v>
+        <v>1216.96</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.518000</v>
+        <v>-108.518</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>83418.691097</v>
+        <v>83418.691097000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.171859</v>
+        <v>23.171859000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.371300</v>
+        <v>-91.371300000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>83429.234555</v>
+        <v>83429.234555000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.174787</v>
+        <v>23.174786999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.616100</v>
+        <v>-86.616100000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>83439.777198</v>
+        <v>83439.777197999996</v>
       </c>
       <c r="AK17" s="1">
         <v>23.177716</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.760000</v>
+        <v>1236.76</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.662700</v>
+        <v>-89.662700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>83450.944941</v>
+        <v>83450.944940999994</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.180818</v>
+        <v>23.180817999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.332000</v>
+        <v>-101.33199999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>83461.815758</v>
+        <v>83461.815757999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.183838</v>
+        <v>23.183838000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1254.450000</v>
+        <v>1254.45</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.467000</v>
+        <v>-120.467</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>83472.545748</v>
+        <v>83472.545748000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.186818</v>
+        <v>23.186817999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.870000</v>
+        <v>-137.87</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>83483.582194</v>
+        <v>83483.582194000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.189884</v>
+        <v>23.189883999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.784000</v>
+        <v>-219.78399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>83494.814099</v>
+        <v>83494.814098999996</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.193004</v>
+        <v>23.193003999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.320000</v>
+        <v>1372.32</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.201000</v>
+        <v>-356.20100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>83505.599644</v>
+        <v>83505.599644000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.196000</v>
+        <v>23.196000000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1487.410000</v>
+        <v>1487.41</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.580000</v>
+        <v>-577.58000000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>83517.909812</v>
+        <v>83517.909811999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.199419</v>
+        <v>23.199418999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.710000</v>
+        <v>1619.71</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.772000</v>
+        <v>-826.77200000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>83529.552608</v>
+        <v>83529.552607999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>23.202654</v>
+        <v>23.202653999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.640000</v>
+        <v>1772.64</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1096.360000</v>
+        <v>-1096.3599999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>83542.409700</v>
+        <v>83542.409700000004</v>
       </c>
       <c r="CD17" s="1">
         <v>23.206225</v>
       </c>
       <c r="CE17" s="1">
-        <v>2189.640000</v>
+        <v>2189.64</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1750.000000</v>
+        <v>-1750</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>83366.764925</v>
+        <v>83366.764924999996</v>
       </c>
       <c r="B18" s="1">
         <v>23.157435</v>
       </c>
       <c r="C18" s="1">
-        <v>1152.410000</v>
+        <v>1152.4100000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.829000</v>
+        <v>-258.82900000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>83377.246879</v>
+        <v>83377.246878999998</v>
       </c>
       <c r="G18" s="1">
-        <v>23.160346</v>
+        <v>23.160346000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1173.900000</v>
+        <v>1173.9000000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.919000</v>
+        <v>-216.91900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>83387.431234</v>
+        <v>83387.431234000003</v>
       </c>
       <c r="L18" s="1">
-        <v>23.163175</v>
+        <v>23.163174999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1201.400000</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.542000</v>
+        <v>-151.542</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>83397.987091</v>
+        <v>83397.987091000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.166108</v>
+        <v>23.166108000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1209.590000</v>
+        <v>1209.5899999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.529000</v>
+        <v>-129.529</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>83408.473511</v>
+        <v>83408.473511000004</v>
       </c>
       <c r="V18" s="1">
-        <v>23.169020</v>
+        <v>23.16902</v>
       </c>
       <c r="W18" s="1">
-        <v>1217.220000</v>
+        <v>1217.22</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.451000</v>
+        <v>-108.45099999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>83419.040312</v>
+        <v>83419.040311999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>23.171956</v>
+        <v>23.171956000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.770000</v>
+        <v>1224.77</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.326600</v>
+        <v>-91.326599999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>83429.883859</v>
+        <v>83429.883858999994</v>
       </c>
       <c r="AF18" s="1">
         <v>23.174968</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.580000</v>
+        <v>1229.58</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.662100</v>
+        <v>-86.662099999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>83440.440171</v>
+        <v>83440.440170999995</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.177900</v>
+        <v>23.177900000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.750000</v>
+        <v>1236.75</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.657600</v>
+        <v>-89.657600000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>83451.335292</v>
+        <v>83451.335292000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.180926</v>
+        <v>23.180925999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.340000</v>
+        <v>-101.34</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>83461.990880</v>
+        <v>83461.990879999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.183886</v>
+        <v>23.183886000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1254.450000</v>
+        <v>1254.45</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.469000</v>
+        <v>-120.46899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>83472.929120</v>
+        <v>83472.929120000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.186925</v>
+        <v>23.186924999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.881000</v>
+        <v>-137.881</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>83483.937329</v>
+        <v>83483.937328999993</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.189983</v>
+        <v>23.189983000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1302.590000</v>
+        <v>1302.5899999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.785000</v>
+        <v>-219.785</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>83495.192546</v>
+        <v>83495.192546000006</v>
       </c>
       <c r="BJ18" s="1">
         <v>23.193109</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.270000</v>
+        <v>1372.27</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.221000</v>
+        <v>-356.221</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>83506.050501</v>
+        <v>83506.050501000005</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.196125</v>
+        <v>23.196124999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1487.430000</v>
+        <v>1487.43</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.636000</v>
+        <v>-577.63599999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>83518.311573</v>
+        <v>83518.311572999999</v>
       </c>
       <c r="BT18" s="1">
         <v>23.199531</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.620000</v>
+        <v>1619.62</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.871000</v>
+        <v>-826.87099999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>83529.974998</v>
+        <v>83529.974998000005</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.202771</v>
+        <v>23.202770999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.710000</v>
+        <v>1772.71</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1096.480000</v>
+        <v>-1096.48</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>83542.944939</v>
+        <v>83542.944938999994</v>
       </c>
       <c r="CD18" s="1">
         <v>23.206374</v>
       </c>
       <c r="CE18" s="1">
-        <v>2189.170000</v>
+        <v>2189.17</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1747.470000</v>
+        <v>-1747.47</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>83367.445436</v>
+        <v>83367.445435999995</v>
       </c>
       <c r="B19" s="1">
-        <v>23.157624</v>
+        <v>23.157623999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>1152.330000</v>
+        <v>1152.33</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.901000</v>
+        <v>-258.90100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>83377.588656</v>
+        <v>83377.588656000007</v>
       </c>
       <c r="G19" s="1">
-        <v>23.160441</v>
+        <v>23.160440999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1173.930000</v>
+        <v>1173.93</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.111000</v>
+        <v>-218.11099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>83387.783424</v>
+        <v>83387.783423999994</v>
       </c>
       <c r="L19" s="1">
         <v>23.163273</v>
       </c>
       <c r="M19" s="1">
-        <v>1201.510000</v>
+        <v>1201.51</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.725000</v>
+        <v>-151.72499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>83398.335778</v>
+        <v>83398.335777999993</v>
       </c>
       <c r="Q19" s="1">
         <v>23.166204</v>
       </c>
       <c r="R19" s="1">
-        <v>1209.620000</v>
+        <v>1209.6199999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.525000</v>
+        <v>-129.52500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>83409.152533</v>
       </c>
       <c r="V19" s="1">
-        <v>23.169209</v>
+        <v>23.169208999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.389000</v>
+        <v>-108.389</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>83419.715831</v>
+        <v>83419.715830999994</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.172143</v>
+        <v>23.172142999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.810000</v>
+        <v>1224.81</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.313500</v>
+        <v>-91.313500000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>83430.266232</v>
+        <v>83430.266231999994</v>
       </c>
       <c r="AF19" s="1">
-        <v>23.175074</v>
+        <v>23.175073999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.610600</v>
+        <v>-86.610600000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>83440.810407</v>
+        <v>83440.810406999997</v>
       </c>
       <c r="AK19" s="1">
         <v>23.178003</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.730000</v>
+        <v>1236.73</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.693700</v>
+        <v>-89.693700000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>83451.724236</v>
+        <v>83451.724235999995</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.181035</v>
+        <v>23.181035000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.362000</v>
+        <v>-101.36199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>83462.352430</v>
+        <v>83462.352429999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.183987</v>
+        <v>23.183986999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1254.440000</v>
+        <v>1254.44</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.482000</v>
+        <v>-120.482</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>83473.289216</v>
+        <v>83473.289216000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.187025</v>
+        <v>23.187024999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.857000</v>
+        <v>-137.857</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>83484.378769</v>
+        <v>83484.378769000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.190105</v>
+        <v>23.190104999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1302.580000</v>
+        <v>1302.58</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.788000</v>
+        <v>-219.78800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>83495.653865</v>
@@ -5030,1163 +5446,1163 @@
         <v>23.193237</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.330000</v>
+        <v>1372.33</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.215000</v>
+        <v>-356.21499999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>83506.421361</v>
+        <v>83506.421361000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.196228</v>
+        <v>23.196228000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1487.430000</v>
+        <v>1487.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.568000</v>
+        <v>-577.56799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>83518.740613</v>
+        <v>83518.740613000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.199650</v>
+        <v>23.199649999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.740000</v>
+        <v>1619.74</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.796000</v>
+        <v>-826.79600000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>83530.397094</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.202888</v>
+        <v>23.202888000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.670000</v>
+        <v>1772.67</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1096.570000</v>
+        <v>-1096.57</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>83543.489530</v>
+        <v>83543.489530000006</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.206525</v>
+        <v>23.206524999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2188.740000</v>
+        <v>2188.7399999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1750.230000</v>
+        <v>-1750.23</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>83367.790652</v>
+        <v>83367.790651999996</v>
       </c>
       <c r="B20" s="1">
-        <v>23.157720</v>
+        <v>23.157720000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1152.390000</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.584000</v>
+        <v>-258.584</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>83377.934333</v>
+        <v>83377.934332999997</v>
       </c>
       <c r="G20" s="1">
-        <v>23.160537</v>
+        <v>23.160537000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1173.900000</v>
+        <v>1173.9000000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.203000</v>
+        <v>-218.203</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>83388.129136</v>
+        <v>83388.129136000003</v>
       </c>
       <c r="L20" s="1">
-        <v>23.163369</v>
+        <v>23.163368999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1201.380000</v>
+        <v>1201.3800000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.721000</v>
+        <v>-151.721</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>83399.005377</v>
+        <v>83399.005376999994</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.166390</v>
+        <v>23.16639</v>
       </c>
       <c r="R20" s="1">
-        <v>1209.520000</v>
+        <v>1209.52</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.583000</v>
+        <v>-129.583</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>83409.502213</v>
       </c>
       <c r="V20" s="1">
-        <v>23.169306</v>
+        <v>23.169305999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.663000</v>
+        <v>-108.663</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>83420.086342</v>
+        <v>83420.086341999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.172246</v>
+        <v>23.172246000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.780000</v>
+        <v>1224.78</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.405000</v>
+        <v>-91.405000000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>83430.608472</v>
+        <v>83430.608472000007</v>
       </c>
       <c r="AF20" s="1">
         <v>23.175169</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.600000</v>
+        <v>1229.5999999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.628600</v>
+        <v>-86.628600000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>83441.171770</v>
+        <v>83441.171770000001</v>
       </c>
       <c r="AK20" s="1">
         <v>23.178103</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.740000</v>
+        <v>1236.74</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.672500</v>
+        <v>-89.672499999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>83452.080780</v>
+        <v>83452.080780000004</v>
       </c>
       <c r="AP20" s="1">
         <v>23.181134</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.333000</v>
+        <v>-101.333</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>83462.789901</v>
+        <v>83462.789900999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.184108</v>
+        <v>23.184107999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1254.470000</v>
+        <v>1254.47</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.489000</v>
+        <v>-120.489</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>83473.758431</v>
+        <v>83473.758430999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.187155</v>
+        <v>23.187155000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.869000</v>
+        <v>-137.869</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>83484.660497</v>
+        <v>83484.660497000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.190183</v>
+        <v>23.190183000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1302.590000</v>
+        <v>1302.5899999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.755000</v>
+        <v>-219.755</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>83495.971762</v>
+        <v>83495.971762000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.193325</v>
+        <v>23.193325000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.270000</v>
+        <v>1372.27</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.225000</v>
+        <v>-356.22500000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>83506.841091</v>
+        <v>83506.841090999995</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.196345</v>
+        <v>23.196345000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1487.370000</v>
+        <v>1487.37</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.560000</v>
+        <v>-577.55999999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>83519.143858</v>
+        <v>83519.143857999996</v>
       </c>
       <c r="BT20" s="1">
         <v>23.199762</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.680000</v>
+        <v>1619.68</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.830000</v>
+        <v>-826.83</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>83530.836051</v>
+        <v>83530.836051000006</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.203010</v>
+        <v>23.203009999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.780000</v>
+        <v>1772.78</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1096.470000</v>
+        <v>-1096.47</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>83544.031154</v>
+        <v>83544.031153999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.206675</v>
+        <v>23.206675000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.330000</v>
+        <v>2190.33</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1748.210000</v>
+        <v>-1748.21</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>83368.130908</v>
+        <v>83368.130908000006</v>
       </c>
       <c r="B21" s="1">
-        <v>23.157814</v>
+        <v>23.157813999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1152.230000</v>
+        <v>1152.23</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.875000</v>
+        <v>-258.875</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>83378.587564</v>
+        <v>83378.587564000001</v>
       </c>
       <c r="G21" s="1">
         <v>23.160719</v>
       </c>
       <c r="H21" s="1">
-        <v>1173.330000</v>
+        <v>1173.33</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.499000</v>
+        <v>-217.499</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>83388.799695</v>
+        <v>83388.799694999994</v>
       </c>
       <c r="L21" s="1">
-        <v>23.163555</v>
+        <v>23.163554999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1201.550000</v>
+        <v>1201.55</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.426000</v>
+        <v>-151.42599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>83399.380913</v>
+        <v>83399.380913000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.166495</v>
+        <v>23.166495000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1209.490000</v>
+        <v>1209.49</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.513000</v>
+        <v>-129.51300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>83409.863300</v>
+        <v>83409.863299999997</v>
       </c>
       <c r="V21" s="1">
-        <v>23.169406</v>
+        <v>23.169405999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1217.060000</v>
+        <v>1217.06</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.608000</v>
+        <v>-108.608</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>83420.436518</v>
+        <v>83420.436518000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>23.172343</v>
+        <v>23.172343000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.920000</v>
+        <v>1224.92</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.365400</v>
+        <v>-91.365399999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>83430.952696</v>
+        <v>83430.952695999993</v>
       </c>
       <c r="AF21" s="1">
         <v>23.175265</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.540000</v>
+        <v>1229.54</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.654000</v>
+        <v>-86.653999999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>83441.520955</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.178200</v>
+        <v>23.1782</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.750000</v>
+        <v>1236.75</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.697600</v>
+        <v>-89.697599999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>83452.559918</v>
+        <v>83452.559917999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>23.181267</v>
+        <v>23.181266999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.570000</v>
+        <v>1244.57</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.338000</v>
+        <v>-101.33799999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>83463.074109</v>
+        <v>83463.074108999994</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.184187</v>
+        <v>23.184187000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.460000</v>
+        <v>1254.46</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.481000</v>
+        <v>-120.48099999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>83474.016352</v>
+        <v>83474.016352000006</v>
       </c>
       <c r="AZ21" s="1">
         <v>23.187227</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.891000</v>
+        <v>-137.89099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>83485.017616</v>
+        <v>83485.017615999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.190283</v>
+        <v>23.190283000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.753000</v>
+        <v>-219.75299999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>83496.346241</v>
+        <v>83496.346241000007</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.193430</v>
+        <v>23.193429999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.330000</v>
+        <v>1372.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.235000</v>
+        <v>-356.23500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>83507.235907</v>
+        <v>83507.235906999995</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.196454</v>
+        <v>23.196453999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1487.400000</v>
+        <v>1487.4</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.592000</v>
+        <v>-577.59199999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>83520.007394</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.200002</v>
+        <v>23.200002000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.820000</v>
+        <v>1619.82</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.911000</v>
+        <v>-826.91099999999994</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>83531.283971</v>
+        <v>83531.283970999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.203134</v>
+        <v>23.203133999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.760000</v>
+        <v>1772.76</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1096.450000</v>
+        <v>-1096.45</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>83544.569281</v>
+        <v>83544.569281000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.206825</v>
+        <v>23.206824999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>2188.150000</v>
+        <v>2188.15</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1748.400000</v>
+        <v>-1748.4</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>83368.786618</v>
+        <v>83368.786617999998</v>
       </c>
       <c r="B22" s="1">
-        <v>23.157996</v>
+        <v>23.157996000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1152.530000</v>
+        <v>1152.53</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.972000</v>
+        <v>-258.97199999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>83378.969980</v>
+        <v>83378.969979999994</v>
       </c>
       <c r="G22" s="1">
-        <v>23.160825</v>
+        <v>23.160824999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1173.590000</v>
+        <v>1173.5899999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.627000</v>
+        <v>-217.62700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>83389.167727</v>
+        <v>83389.167726999993</v>
       </c>
       <c r="L22" s="1">
-        <v>23.163658</v>
+        <v>23.163658000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1201.410000</v>
+        <v>1201.4100000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.599000</v>
+        <v>-151.59899999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>83399.731031</v>
+        <v>83399.731031000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.166592</v>
+        <v>23.166592000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1209.440000</v>
+        <v>1209.44</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.487000</v>
+        <v>-129.48699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>83410.200084</v>
+        <v>83410.200083999996</v>
       </c>
       <c r="V22" s="1">
-        <v>23.169500</v>
+        <v>23.169499999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.542000</v>
+        <v>-108.542</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>83420.784245</v>
+        <v>83420.784245000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>23.172440</v>
+        <v>23.172440000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.308100</v>
+        <v>-91.308099999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>83431.381735</v>
+        <v>83431.381735000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.175384</v>
+        <v>23.175384000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.632500</v>
+        <v>-86.632499999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>83441.960410</v>
+        <v>83441.96041</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.178322</v>
+        <v>23.178322000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.740000</v>
+        <v>1236.74</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.640200</v>
+        <v>-89.640199999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>83452.803948</v>
+        <v>83452.803948000001</v>
       </c>
       <c r="AP22" s="1">
         <v>23.181334</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.352000</v>
+        <v>-101.352</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>83463.449581</v>
+        <v>83463.449580999993</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.184292</v>
+        <v>23.184291999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1254.450000</v>
+        <v>1254.45</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.477000</v>
+        <v>-120.477</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>83474.364580</v>
+        <v>83474.364579999994</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.187323</v>
+        <v>23.187322999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.893000</v>
+        <v>-137.893</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>83485.378246</v>
+        <v>83485.378245999993</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.190383</v>
+        <v>23.190383000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1302.560000</v>
+        <v>1302.56</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.789000</v>
+        <v>-219.78899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>83496.726178</v>
+        <v>83496.726177999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>23.193535</v>
+        <v>23.193535000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.350000</v>
+        <v>1372.35</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.201000</v>
+        <v>-356.20100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>83508.053810</v>
+        <v>83508.053809999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.196682</v>
+        <v>23.196681999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1487.360000</v>
+        <v>1487.36</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.557000</v>
+        <v>-577.55700000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>83520.439409</v>
+        <v>83520.439408999999</v>
       </c>
       <c r="BT22" s="1">
         <v>23.200122</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.670000</v>
+        <v>1619.67</v>
       </c>
       <c r="BV22" s="1">
-        <v>-826.863000</v>
+        <v>-826.86300000000006</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>83531.728850</v>
+        <v>83531.72885</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.203258</v>
+        <v>23.203258000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.810000</v>
+        <v>1772.81</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1096.480000</v>
+        <v>-1096.48</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>83545.110912</v>
+        <v>83545.110912000004</v>
       </c>
       <c r="CD22" s="1">
         <v>23.206975</v>
       </c>
       <c r="CE22" s="1">
-        <v>2189.980000</v>
+        <v>2189.98</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1749.950000</v>
+        <v>-1749.95</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>83369.157129</v>
+        <v>83369.157128999999</v>
       </c>
       <c r="B23" s="1">
         <v>23.158099</v>
       </c>
       <c r="C23" s="1">
-        <v>1152.330000</v>
+        <v>1152.33</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.811000</v>
+        <v>-258.81099999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>83379.312716</v>
       </c>
       <c r="G23" s="1">
-        <v>23.160920</v>
+        <v>23.160920000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1174.120000</v>
+        <v>1174.1199999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.261000</v>
+        <v>-217.261</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>83389.511950</v>
+        <v>83389.51195</v>
       </c>
       <c r="L23" s="1">
         <v>23.163753</v>
       </c>
       <c r="M23" s="1">
-        <v>1201.570000</v>
+        <v>1201.57</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.763000</v>
+        <v>-151.76300000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>83400.080208</v>
+        <v>83400.080207999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.166689</v>
+        <v>23.166689000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1209.530000</v>
+        <v>1209.53</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.494000</v>
+        <v>-129.494</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>83410.645492</v>
+        <v>83410.645491999996</v>
       </c>
       <c r="V23" s="1">
-        <v>23.169624</v>
+        <v>23.169623999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1217.020000</v>
+        <v>1217.02</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.554000</v>
+        <v>-108.554</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>83421.216724</v>
+        <v>83421.216723999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.172560</v>
+        <v>23.172560000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.422800</v>
+        <v>-91.422799999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>83431.661479</v>
+        <v>83431.661479000002</v>
       </c>
       <c r="AF23" s="1">
         <v>23.175462</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.648100</v>
+        <v>-86.648099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>83442.227257</v>
+        <v>83442.227257000006</v>
       </c>
       <c r="AK23" s="1">
-        <v>23.178396</v>
+        <v>23.178395999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.750000</v>
+        <v>1236.75</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.699800</v>
+        <v>-89.699799999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>83453.163059</v>
+        <v>83453.163058999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.181434</v>
+        <v>23.181433999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.365000</v>
+        <v>-101.36499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>83463.813148</v>
+        <v>83463.813148000001</v>
       </c>
       <c r="AU23" s="1">
         <v>23.184393</v>
       </c>
       <c r="AV23" s="1">
-        <v>1254.430000</v>
+        <v>1254.43</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.502000</v>
+        <v>-120.502</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>83474.726623</v>
+        <v>83474.726622999995</v>
       </c>
       <c r="AZ23" s="1">
         <v>23.187424</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.893000</v>
+        <v>-137.893</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>83486.101871</v>
+        <v>83486.101871000006</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.190584</v>
+        <v>23.190584000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1302.580000</v>
+        <v>1302.58</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.776000</v>
+        <v>-219.77600000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>83497.484560</v>
+        <v>83497.484559999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.193746</v>
+        <v>23.193746000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.290000</v>
+        <v>1372.29</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.250000</v>
+        <v>-356.25</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>83508.471137</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.196798</v>
+        <v>23.196798000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.350000</v>
+        <v>1487.35</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.597000</v>
+        <v>-577.59699999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>83520.850593</v>
+        <v>83520.850592999996</v>
       </c>
       <c r="BT23" s="1">
         <v>23.200236</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.800000</v>
+        <v>1619.8</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.820000</v>
+        <v>-826.82</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>83532.149458</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.203375</v>
+        <v>23.203375000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.660000</v>
+        <v>1772.66</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1096.480000</v>
+        <v>-1096.48</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>83545.973982</v>
+        <v>83545.973981999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>23.207215</v>
+        <v>23.207215000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2188.110000</v>
+        <v>2188.11</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1748.800000</v>
+        <v>-1748.8</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>83369.500510</v>
+        <v>83369.500509999998</v>
       </c>
       <c r="B24" s="1">
-        <v>23.158195</v>
+        <v>23.158194999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1152.230000</v>
+        <v>1152.23</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.726000</v>
+        <v>-258.726</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>83379.656939</v>
+        <v>83379.656938999993</v>
       </c>
       <c r="G24" s="1">
         <v>23.161016</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.810000</v>
+        <v>1173.81</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.915000</v>
+        <v>-217.91499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>83389.882462</v>
+        <v>83389.882461999994</v>
       </c>
       <c r="L24" s="1">
-        <v>23.163856</v>
+        <v>23.163855999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1201.420000</v>
+        <v>1201.42</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.695000</v>
+        <v>-151.69499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>83400.507263</v>
+        <v>83400.507263000007</v>
       </c>
       <c r="Q24" s="1">
         <v>23.166808</v>
       </c>
       <c r="R24" s="1">
-        <v>1209.560000</v>
+        <v>1209.56</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.522000</v>
+        <v>-129.52199999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>83410.897954</v>
@@ -6195,709 +6611,710 @@
         <v>23.169694</v>
       </c>
       <c r="W24" s="1">
-        <v>1217.030000</v>
+        <v>1217.03</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.456000</v>
+        <v>-108.456</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>83421.491508</v>
+        <v>83421.491508000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.172637</v>
+        <v>23.172637000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.222100</v>
+        <v>-91.222099999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>83432.007224</v>
+        <v>83432.007224000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.175558</v>
+        <v>23.175557999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.580000</v>
+        <v>1229.58</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.631100</v>
+        <v>-86.631100000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>83442.575976</v>
+        <v>83442.575975999993</v>
       </c>
       <c r="AK24" s="1">
         <v>23.178493</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.730000</v>
+        <v>1236.73</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.673800</v>
+        <v>-89.6738</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>83453.521194</v>
+        <v>83453.521194000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.181534</v>
+        <v>23.181533999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.342000</v>
+        <v>-101.342</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>83464.543259</v>
+        <v>83464.543258999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.184595</v>
+        <v>23.184595000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1254.440000</v>
+        <v>1254.44</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.497000</v>
+        <v>-120.497</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>83475.446814</v>
+        <v>83475.446813999995</v>
       </c>
       <c r="AZ24" s="1">
         <v>23.187624</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.875000</v>
+        <v>-137.875</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>83486.465438</v>
+        <v>83486.465437999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.190685</v>
+        <v>23.190684999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.780000</v>
+        <v>-219.78</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>83497.847136</v>
+        <v>83497.847135999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>23.193846</v>
+        <v>23.193846000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.310000</v>
+        <v>1372.31</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.200000</v>
+        <v>-356.2</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>83508.867249</v>
+        <v>83508.867249000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.196908</v>
+        <v>23.196908000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1487.380000</v>
+        <v>1487.38</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.589000</v>
+        <v>-577.58900000000006</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>83521.610464</v>
+        <v>83521.610463999998</v>
       </c>
       <c r="BT24" s="1">
         <v>23.200447</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.760000</v>
+        <v>1619.76</v>
       </c>
       <c r="BV24" s="1">
-        <v>-826.717000</v>
+        <v>-826.71699999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>83532.898418</v>
+        <v>83532.898417999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.203583</v>
+        <v>23.203582999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1772.720000</v>
+        <v>1772.72</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1096.560000</v>
+        <v>-1096.56</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>83546.189766</v>
+        <v>83546.189765999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.207275</v>
+        <v>23.207274999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2187.690000</v>
+        <v>2187.69</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1748.870000</v>
+        <v>-1748.87</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>83369.841112</v>
+        <v>83369.841111999995</v>
       </c>
       <c r="B25" s="1">
         <v>23.158289</v>
       </c>
       <c r="C25" s="1">
-        <v>1152.470000</v>
+        <v>1152.47</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.846000</v>
+        <v>-258.846</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>83380.085484</v>
+        <v>83380.085483999996</v>
       </c>
       <c r="G25" s="1">
-        <v>23.161135</v>
+        <v>23.161135000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1173.560000</v>
+        <v>1173.56</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.622000</v>
+        <v>-217.62200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>83390.405741</v>
+        <v>83390.405740999995</v>
       </c>
       <c r="L25" s="1">
         <v>23.164002</v>
       </c>
       <c r="M25" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.706000</v>
+        <v>-151.70599999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>83400.787503</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.166885</v>
+        <v>23.166885000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1209.600000</v>
+        <v>1209.5999999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.554000</v>
+        <v>-129.554</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>83411.252593</v>
+        <v>83411.252592999997</v>
       </c>
       <c r="V25" s="1">
-        <v>23.169792</v>
+        <v>23.169792000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.550000</v>
+        <v>-108.55</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>83421.842180</v>
+        <v>83421.842180000007</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.172734</v>
+        <v>23.172733999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.347800</v>
+        <v>-91.347800000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>83432.350421</v>
+        <v>83432.350420999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.175653</v>
+        <v>23.175653000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.653400</v>
+        <v>-86.653400000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>83442.926616</v>
+        <v>83442.926615999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.178591</v>
+        <v>23.178591000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.750000</v>
+        <v>1236.75</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.661500</v>
+        <v>-89.661500000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>83454.241849</v>
+        <v>83454.241848999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.181734</v>
+        <v>23.181733999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.354000</v>
+        <v>-101.354</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>83464.939066</v>
+        <v>83464.939066000006</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.184705</v>
+        <v>23.184705000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1254.440000</v>
+        <v>1254.44</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.478000</v>
+        <v>-120.47799999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>83475.826252</v>
+        <v>83475.826251999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.187730</v>
+        <v>23.187729999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.861000</v>
+        <v>-137.86099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>83486.820575</v>
+        <v>83486.820575000005</v>
       </c>
       <c r="BE25" s="1">
         <v>23.190783</v>
       </c>
       <c r="BF25" s="1">
-        <v>1302.570000</v>
+        <v>1302.57</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.799000</v>
+        <v>-219.79900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>83498.221966</v>
+        <v>83498.221965999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.193951</v>
+        <v>23.193950999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.270000</v>
+        <v>1372.27</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.255000</v>
+        <v>-356.255</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>83509.612736</v>
+        <v>83509.612735999995</v>
       </c>
       <c r="BO25" s="1">
         <v>23.197115</v>
       </c>
       <c r="BP25" s="1">
-        <v>1487.410000</v>
+        <v>1487.41</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.586000</v>
+        <v>-577.58600000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>83521.726528</v>
+        <v>83521.726527999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>23.200480</v>
+        <v>23.200479999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.810000</v>
+        <v>1619.81</v>
       </c>
       <c r="BV25" s="1">
-        <v>-826.894000</v>
+        <v>-826.89400000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>83533.054657</v>
+        <v>83533.054657000001</v>
       </c>
       <c r="BY25" s="1">
         <v>23.203626</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.710000</v>
+        <v>1772.71</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1096.270000</v>
+        <v>-1096.27</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>83546.707534</v>
+        <v>83546.707534000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.207419</v>
+        <v>23.207419000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>2189.430000</v>
+        <v>2189.4299999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1750.090000</v>
+        <v>-1750.09</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>83370.267672</v>
+        <v>83370.267672000002</v>
       </c>
       <c r="B26" s="1">
-        <v>23.158408</v>
+        <v>23.158408000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1152.360000</v>
+        <v>1152.3599999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.850000</v>
+        <v>-258.85000000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>83380.351834</v>
+        <v>83380.351834000001</v>
       </c>
       <c r="G26" s="1">
-        <v>23.161209</v>
+        <v>23.161208999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.370000</v>
+        <v>1173.3699999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.335000</v>
+        <v>-217.33500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>83390.570415</v>
+        <v>83390.570414999995</v>
       </c>
       <c r="L26" s="1">
         <v>23.164047</v>
       </c>
       <c r="M26" s="1">
-        <v>1201.670000</v>
+        <v>1201.67</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.738000</v>
+        <v>-151.738</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>83401.133711</v>
+        <v>83401.133711000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.166982</v>
+        <v>23.166982000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1209.540000</v>
+        <v>1209.54</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.562000</v>
+        <v>-129.56200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>83411.599300</v>
+        <v>83411.599300000002</v>
       </c>
       <c r="V26" s="1">
-        <v>23.169889</v>
+        <v>23.169889000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.644000</v>
+        <v>-108.64400000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>83422.192851</v>
       </c>
       <c r="AA26" s="1">
-        <v>23.172831</v>
+        <v>23.172830999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.270700</v>
+        <v>-91.270700000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>83433.034901</v>
+        <v>83433.034901000006</v>
       </c>
       <c r="AF26" s="1">
         <v>23.175843</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.634300</v>
+        <v>-86.634299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>83443.627463</v>
+        <v>83443.627462999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>23.178785</v>
+        <v>23.178785000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.740000</v>
+        <v>1236.74</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.677200</v>
+        <v>-89.677199999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>83454.599960</v>
+        <v>83454.599960000007</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.181833</v>
+        <v>23.181833000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.334000</v>
+        <v>-101.334</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>83465.300154</v>
+        <v>83465.300153999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>23.184806</v>
+        <v>23.184805999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.430000</v>
+        <v>1254.43</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.485000</v>
+        <v>-120.485</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>83476.208177</v>
+        <v>83476.208176999993</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.187836</v>
+        <v>23.187836000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.874000</v>
+        <v>-137.874</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>83487.503565</v>
+        <v>83487.503565000006</v>
       </c>
       <c r="BE26" s="1">
         <v>23.190973</v>
       </c>
       <c r="BF26" s="1">
-        <v>1302.560000</v>
+        <v>1302.56</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.786000</v>
+        <v>-219.786</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>83498.689342</v>
+        <v>83498.689341999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.194080</v>
+        <v>23.19408</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.330000</v>
+        <v>1372.33</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.202000</v>
+        <v>-356.202</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>83510.102783</v>
+        <v>83510.102782999995</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.197251</v>
+        <v>23.197251000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1487.410000</v>
+        <v>1487.41</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.589000</v>
+        <v>-577.58900000000006</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>83522.146640</v>
+        <v>83522.146640000006</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.200596</v>
+        <v>23.200596000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.780000</v>
+        <v>1619.78</v>
       </c>
       <c r="BV26" s="1">
-        <v>-826.856000</v>
+        <v>-826.85599999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>83533.476752</v>
+        <v>83533.476752000002</v>
       </c>
       <c r="BY26" s="1">
         <v>23.203744</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.800000</v>
+        <v>1772.8</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1096.390000</v>
+        <v>-1096.3900000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>83547.226846</v>
+        <v>83547.226846000005</v>
       </c>
       <c r="CD26" s="1">
         <v>23.207563</v>
       </c>
       <c r="CE26" s="1">
-        <v>2190.370000</v>
+        <v>2190.37</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1748.860000</v>
+        <v>-1748.86</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>